--- a/biology/Zoologie/Caligo_teucer/Caligo_teucer.xlsx
+++ b/biology/Zoologie/Caligo_teucer/Caligo_teucer.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve"> Caligo teucer  est une espèce de lépidoptères (papillons) de la famille des Nymphalidae et de la sous-famille des Morphinae et du genre Caligo.
 </t>
@@ -511,13 +523,12 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Caligo teucer  a été décrit par le naturaliste Carl von Linné en 1758 sous le nom initial de Papilio teucer[1].
-Synonymie
-Caligo musae (Fabricius, 1938)
-Caligo teucra (Hübner, 1819)
-Papilio teucer (Linné, 1758) - protonyme</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Caligo teucer  a été décrit par le naturaliste Carl von Linné en 1758 sous le nom initial de Papilio teucer.
+</t>
         </is>
       </c>
     </row>
@@ -542,58 +553,63 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Dénomination</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Synonymie</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Caligo musae (Fabricius, 1938)
+Caligo teucra (Hübner, 1819)
+Papilio teucer (Linné, 1758) - protonyme</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Caligo_teucer</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Caligo_teucer</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il existe plusieurs sous-espèces :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Il existe plusieurs sous-espèces :
 Caligo teucer teucer (Linné, 1758) Localité type "Amérique".
 Caligo teucer ecuadora (Joicey &amp; Kaye, 1917) Localité type Équateur.
 Caligo teucer insulanus (Stichel, 1903) Localité type Trinité-et-Tobago.
 Caligo teucer japetus (Stichel, 1903) Localité type Paraguay.
 Caligo teucer nubilus (Fruhstorfer, 1907) Localité type Guyana.
-Caligo teucer obidonus (Fruhstorfer, 1904) Localité type État de Pará au Brésil[2].
+Caligo teucer obidonus (Fruhstorfer, 1904) Localité type État de Pará au Brésil.
 Il existe des synonymes pour cette sous-espèce :
-Caligo teucer phoroneus (Fruhstorfer, 1907) [3]
+Caligo teucer phoroneus (Fruhstorfer, 1907) 
 Caligo teucer joasa (Joicey &amp; Kaye, 1917)
 Caligo teucer phorkys (Fruhstorfer, 1912) Localité type la Bolivie.
-Caligo teucer semicaerulea (Joicey &amp; Kaye, 1917) Localité type le Pérou.
-Noms vernaculaires
-Caligo teucer se nomme Teucer Owl butterfly en anglais[4].
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Caligo_teucer</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Caligo_teucer</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Description</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Caligo teucer est un grand papillon, d'une envergure d'environ 82 mm à 130 mm au bord externe des ailes festonné avec le dessus des ailes de couleur marron nacré et beige nacré pour les aires basales et discales des ailes antérieures[5].
-Le revers est ocre doré marbré de gris argent avec un très gros ocelles noir cerclé de jaune sur chaque aile postérieure mimant les yeux d'un hibou ou d'une grenouille arboricole.
-</t>
+Caligo teucer semicaerulea (Joicey &amp; Kaye, 1917) Localité type le Pérou.</t>
         </is>
       </c>
     </row>
@@ -618,13 +634,18 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Biologie</t>
+          <t>Taxinomie</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t xml:space="preserve">plantes hôtes
-Les plantes hôtes de sa chenille sont Heliconia sp et Musa sp les bananiers (Musaceae)[6].
+          <t>Noms vernaculaires</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Caligo teucer se nomme Teucer Owl butterfly en anglais.
 </t>
         </is>
       </c>
@@ -650,16 +671,159 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Caligo teucer est un grand papillon, d'une envergure d'environ 82 mm à 130 mm au bord externe des ailes festonné avec le dessus des ailes de couleur marron nacré et beige nacré pour les aires basales et discales des ailes antérieures.
+Le revers est ocre doré marbré de gris argent avec un très gros ocelles noir cerclé de jaune sur chaque aile postérieure mimant les yeux d'un hibou ou d'une grenouille arboricole.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Caligo_teucer</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Caligo_teucer</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>plantes hôtes</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les plantes hôtes de sa chenille sont Heliconia sp et Musa sp les bananiers (Musaceae).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Caligo_teucer</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Caligo_teucer</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Écologie et distribution</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Caligo eurilochus est présent en Amérique du Sud, dans l'Ecozone néotropicale, à Trinité-et-Tobago, au Brésil, au Paraguay, au Pérou, en Bolivie, en Équateur et en Guyana[7].
-Biotope
-Il réside dans la forêt humide[4].
-Protection
-Pas de statut de protection particulier
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Caligo eurilochus est présent en Amérique du Sud, dans l'Ecozone néotropicale, à Trinité-et-Tobago, au Brésil, au Paraguay, au Pérou, en Bolivie, en Équateur et en Guyana.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Caligo_teucer</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Caligo_teucer</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Biotope</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il réside dans la forêt humide.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Caligo_teucer</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Caligo_teucer</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pas de statut de protection particulier
 </t>
         </is>
       </c>
